--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail15 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>7.072012151088517e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.156024456140148</v>
+        <v>4.482037152264198e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.676884078287416</v>
+        <v>1.393326668183355e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.482037152264198e-07</v>
+        <v>0.06957118159642711</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.393326668183355e-06</v>
+        <v>0.3163223621577609</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06957118159642711</v>
+        <v>0.104695168351802</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3163223621577609</v>
+        <v>1.910163874677866</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.104695168351802</v>
+        <v>2.336991809150347</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.929306117079</v>
+        <v>4.862363035993399</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.336991809150347</v>
+        <v>2.627442059262561e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.862363035993399</v>
+        <v>3002509181.578476</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.627442059262561e-17</v>
+        <v>4.011944973044799e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3002509181.578476</v>
+        <v>236.8655145099944</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.011944973044799e-08</v>
+        <v>0.0001881077457220837</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>236.8655145099944</v>
+        <v>8.490425498604081</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001881077457220837</v>
+        <v>1.824418173171483</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.490425498604081</v>
+        <v>0.0135601842286022</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.824418173171483</v>
+        <v>3.399048212685399</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0135601842286022</v>
+        <v>0.9595136109611422</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.399048212685399</v>
+        <v>1.262009284724828</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9595136109611422</v>
+        <v>117</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.262009284724828</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.42775274078277</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>6.03281741010772e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2117822212722032</v>
+        <v>3.379179226069372e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4972052282655097</v>
+        <v>1.397271722540906e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.379179226069372e-07</v>
+        <v>0.05085935426333076</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.397271722540906e-06</v>
+        <v>0.2921881378545245</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05085935426333076</v>
+        <v>0.08779825080529828</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2921881378545245</v>
+        <v>1.911629120358056</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08779825080529828</v>
+        <v>2.290542500242958</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.92957837550034</v>
+        <v>4.426607832645928</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.290542500242958</v>
+        <v>3.170193811210831e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.426607832645928</v>
+        <v>2525992589.211942</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.170193811210831e-17</v>
+        <v>4.770050897815372e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2525992589.211942</v>
+        <v>202.2786087687441</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.770050897815372e-08</v>
+        <v>0.0001682368692066127</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>202.2786087687441</v>
+        <v>9.20765812406645</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001682368692066127</v>
+        <v>1.376843922337856</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.20765812406645</v>
+        <v>0.01426328464644413</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.376843922337856</v>
+        <v>3.105966474666163</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01426328464644413</v>
+        <v>0.9573969596107127</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.105966474666163</v>
+        <v>1.277345798621295</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9573969596107127</v>
+        <v>117</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.277345798621295</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7293009369061065</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>5.517850264980753e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3424924835122973</v>
+        <v>2.540529340559575e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8620981389267852</v>
+        <v>1.399594934662529e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.540529340559575e-07</v>
+        <v>0.02985898174242943</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.399594934662529e-06</v>
+        <v>0.2558673673532312</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02985898174242943</v>
+        <v>0.06624378421770259</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2558673673532312</v>
+        <v>1.912040942167224</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06624378421770259</v>
+        <v>2.383995485668942</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.927994010387372</v>
+        <v>4.328758859705145</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.383995485668942</v>
+        <v>3.315134272234238e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.328758859705145</v>
+        <v>2352704161.862046</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.315134272234238e-17</v>
+        <v>5.121205514532224e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2352704161.862046</v>
+        <v>183.4998716073709</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.121205514532224e-08</v>
+        <v>0.0001565963868446058</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>183.4998716073709</v>
+        <v>10.18301468691728</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001565963868446058</v>
+        <v>1.141679163032061</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.18301468691728</v>
+        <v>0.0162380725568783</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.141679163032061</v>
+        <v>2.900248817763757</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0162380725568783</v>
+        <v>0.9567940009418825</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.900248817763757</v>
+        <v>1.259097468419472</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9567940009418825</v>
+        <v>99</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.259097468419472</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5210198538087448</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>5.334106045460601e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5127122868721937</v>
+        <v>1.879772237793216e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.099301385348043</v>
+        <v>1.400654859077112e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.879772237793216e-07</v>
+        <v>0.009735272746112317</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.400654859077112e-06</v>
+        <v>0.2126366550190753</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.009735272746112317</v>
+        <v>0.04522810797493233</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2126366550190753</v>
+        <v>1.921018804375412</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04522810797493233</v>
+        <v>2.402139382049171</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.933849589017728</v>
+        <v>4.311277340846453</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.402139382049171</v>
+        <v>3.342073424517466e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.311277340846453</v>
+        <v>2343809081.593694</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.342073424517466e-17</v>
+        <v>5.144525471791178e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2343809081.593694</v>
+        <v>183.5948321188737</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.144525471791178e-08</v>
+        <v>0.0001552358430161823</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>183.5948321188737</v>
+        <v>10.38200150696831</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001552358430161823</v>
+        <v>1.146884868824435</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.38200150696831</v>
+        <v>0.01673224363485515</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.146884868824435</v>
+        <v>2.775078916168955</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01673224363485515</v>
+        <v>0.9572442312388474</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.775078916168955</v>
+        <v>1.291313980172784</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9572442312388474</v>
+        <v>82</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.291313980172784</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4699444741099511</v>
       </c>
     </row>
@@ -5145,72 +5109,66 @@
         <v>5.325846435911704e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5210967577995487</v>
+        <v>1.586841842320882e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.106169611837498</v>
+        <v>1.400688955804487e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.586841842320882e-07</v>
+        <v>-0.00785408533426692</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.400688955804487e-06</v>
+        <v>0.1668283719793436</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.00785408533426692</v>
+        <v>0.02783555932713212</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1668283719793436</v>
+        <v>1.920846547123412</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02783555932713212</v>
+        <v>2.433852958517521</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.936303858994376</v>
+        <v>4.310599669655022</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.433852958517521</v>
+        <v>3.343124324661399e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.310599669655022</v>
+        <v>2344622839.446928</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.343124324661399e-17</v>
+        <v>5.142871626762059e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2344622839.446928</v>
+        <v>183.7801111921644</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.142871626762059e-08</v>
+        <v>0.0001489783119898373</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>183.7801111921644</v>
+        <v>9.386010597281906</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001489783119898373</v>
+        <v>1.19801216687126</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.386010597281906</v>
+        <v>0.01312457139205195</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.19801216687126</v>
+        <v>2.964873718530677</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01312457139205195</v>
+        <v>0.9571969576822397</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.964873718530677</v>
+        <v>1.289367000894043</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9571969576822397</v>
+        <v>87</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.289367000894043</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4732873554313043</v>
       </c>
     </row>
@@ -5225,72 +5183,66 @@
         <v>5.381030428368963e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5258681401688299</v>
+        <v>1.602090562653235e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.121611544973202</v>
+        <v>1.399860577763043e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.602090562653235e-07</v>
+        <v>-0.02227555374307416</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.399860577763043e-06</v>
+        <v>0.1222903661393175</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02227555374307416</v>
+        <v>0.01541825992781641</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1222903661393175</v>
+        <v>1.920136125163032</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01541825992781641</v>
+        <v>2.327839073830425</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.937253007603707</v>
+        <v>4.299070905728064</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.327839073830425</v>
+        <v>3.361078794770068e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.299070905728064</v>
+        <v>2223523219.744405</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.361078794770068e-17</v>
+        <v>5.390176624226216e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2223523219.744405</v>
+        <v>166.1736013060064</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.390176624226216e-08</v>
+        <v>0.0001624449933786237</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>166.1736013060064</v>
+        <v>8.282004533439521</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001624449933786237</v>
+        <v>1.527765170797875</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.282004533439521</v>
+        <v>0.01114236186031498</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.527765170797875</v>
+        <v>3.074794468984372</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01114236186031498</v>
+        <v>0.9570008438020121</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.074794468984372</v>
+        <v>1.285207683957977</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9570008438020121</v>
+        <v>52</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.285207683957977</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4717704022541159</v>
       </c>
     </row>
@@ -5305,72 +5257,66 @@
         <v>5.428643991920212e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5657445974466874</v>
+        <v>1.614439862327591e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.099742635081089</v>
+        <v>1.39836410811277e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.614439862327591e-07</v>
+        <v>-0.0323506679581599</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.39836410811277e-06</v>
+        <v>0.09058563159671019</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0323506679581599</v>
+        <v>0.009236872376130276</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09058563159671019</v>
+        <v>1.913916098647681</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009236872376130276</v>
+        <v>2.300449054562207</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.93161488677254</v>
+        <v>4.25951063621011</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.300449054562207</v>
+        <v>3.42380085487321e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.25951063621011</v>
+        <v>2167252504.1158</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.42380085487321e-17</v>
+        <v>5.525984635687676e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2167252504.1158</v>
+        <v>160.8153583706738</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.525984635687676e-08</v>
+        <v>0.0001763801123118939</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>160.8153583706738</v>
+        <v>9.005226522475803</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001763801123118939</v>
+        <v>1.466052822768467</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.005226522475803</v>
+        <v>0.01430338729854039</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.466052822768467</v>
+        <v>2.983822682427213</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01430338729854039</v>
+        <v>0.9564572437739755</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.983822682427213</v>
+        <v>1.270605949562932</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9564572437739755</v>
+        <v>52</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.270605949562932</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.461048931511063</v>
       </c>
     </row>
@@ -5385,72 +5331,66 @@
         <v>5.438973766140348e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6272926763838194</v>
+        <v>1.622225304247225e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.020379296381488</v>
+        <v>1.396403027310512e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.622225304247225e-07</v>
+        <v>-0.03929923548770645</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.396403027310512e-06</v>
+        <v>0.06992606737713054</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03929923548770645</v>
+        <v>0.00642713872328296</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06992606737713054</v>
+        <v>1.911260670237612</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.00642713872328296</v>
+        <v>2.257979223183204</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.928370762695681</v>
+        <v>4.16913148620494</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.257979223183204</v>
+        <v>3.573853335187395e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.16913148620494</v>
+        <v>2083220052.675501</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.573853335187395e-17</v>
+        <v>5.743683496692054e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2083220052.675501</v>
+        <v>155.0982938904232</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.743683496692054e-08</v>
+        <v>0.0001653138455500254</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>155.0982938904232</v>
+        <v>10.4999762739754</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001653138455500254</v>
+        <v>1.137658183636071</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.4999762739754</v>
+        <v>0.01822576910493568</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.137658183636071</v>
+        <v>2.841366417538608</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01822576910493568</v>
+        <v>0.9572562897934104</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.841366417538608</v>
+        <v>1.317194640663137</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9572562897934104</v>
+        <v>52</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.317194640663137</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4515749384955328</v>
       </c>
     </row>
@@ -5465,72 +5405,66 @@
         <v>5.405235794422157e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6959772164130646</v>
+        <v>1.624044156928924e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8994521401262472</v>
+        <v>1.394129775316098e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.624044156928924e-07</v>
+        <v>-0.04418799452216467</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.394129775316098e-06</v>
+        <v>0.05728772532031923</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04418799452216467</v>
+        <v>0.005231512877193758</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05728772532031923</v>
+        <v>1.902735707014979</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005231512877193758</v>
+        <v>2.266719910180772</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.916064431475255</v>
+        <v>4.089973950390403</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.266719910180772</v>
+        <v>3.713529055097137e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.089973950390403</v>
+        <v>2040470142.914379</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.713529055097137e-17</v>
+        <v>5.870853509766627e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2040470142.914379</v>
+        <v>154.6134656514994</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.870853509766627e-08</v>
+        <v>0.0001596239308040919</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>154.6134656514994</v>
+        <v>10.86301191192498</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001596239308040919</v>
+        <v>1.090014016336269</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.86301191192498</v>
+        <v>0.01883642639186251</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.090014016336269</v>
+        <v>2.726517271351337</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01883642639186251</v>
+        <v>0.9590757478621568</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.726517271351337</v>
+        <v>1.316051001364509</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9590757478621568</v>
+        <v>53</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.316051001364509</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.450615757006729</v>
       </c>
     </row>
@@ -5545,72 +5479,66 @@
         <v>5.329555606730197e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7637430783124208</v>
+        <v>1.626489101722375e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7561840686315859</v>
+        <v>1.391652168220467e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.626489101722375e-07</v>
+        <v>-0.04792153941423396</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.391652168220467e-06</v>
+        <v>0.05027683722921553</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04792153941423396</v>
+        <v>0.004823231162518164</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05027683722921553</v>
+        <v>1.902674001973103</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004823231162518164</v>
+        <v>2.239727024428178</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.908917315134389</v>
+        <v>3.972108713536973</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.239727024428178</v>
+        <v>3.937183510306774e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.972108713536973</v>
+        <v>1917982238.829947</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.937183510306774e-17</v>
+        <v>6.255125046137698e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1917982238.829947</v>
+        <v>144.8354322542206</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.255125046137698e-08</v>
+        <v>0.0001530783538193127</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>144.8354322542206</v>
+        <v>9.588599653447417</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001530783538193127</v>
+        <v>1.189047260506661</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.588599653447417</v>
+        <v>0.01407421417462208</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.189047260506661</v>
+        <v>2.965275295108295</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01407421417462208</v>
+        <v>0.9591113334472234</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.965275295108295</v>
+        <v>1.358568893102075</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9591113334472234</v>
+        <v>53</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.358568893102075</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4551852011983863</v>
       </c>
     </row>
@@ -5625,72 +5553,66 @@
         <v>5.218167294826766e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8261987194344605</v>
+        <v>1.634623885302548e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6050444377974311</v>
+        <v>1.389038587830128e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.634623885302548e-07</v>
+        <v>-0.05105138019326633</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.389038587830128e-06</v>
+        <v>0.0471165576333703</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05105138019326633</v>
+        <v>0.004826110004920908</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0471165576333703</v>
+        <v>1.905540249525853</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004826110004920908</v>
+        <v>2.170520949055122</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.909052935453699</v>
+        <v>3.939714816667811</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.170520949055122</v>
+        <v>4.002195861561023e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.939714816667811</v>
+        <v>1919529795.775805</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.002195861561023e-17</v>
+        <v>6.275990463830649e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1919529795.775805</v>
+        <v>147.4646940721547</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.275990463830649e-08</v>
+        <v>0.0001629980690442775</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>147.4646940721547</v>
+        <v>8.58388283612133</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001629980690442775</v>
+        <v>1.490185750967296</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.58388283612133</v>
+        <v>0.0120101939820176</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.490185750967296</v>
+        <v>3.087559648734588</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0120101939820176</v>
+        <v>0.9590512826504516</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.087559648734588</v>
+        <v>1.347809196190026</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9590512826504516</v>
+        <v>53</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.347809196190026</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.4882677053403647</v>
       </c>
     </row>
@@ -5705,72 +5627,66 @@
         <v>5.077814784301502e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8808696167237297</v>
+        <v>1.646765492492933e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.4564800533033551</v>
+        <v>1.386336870682088e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.646765492492933e-07</v>
+        <v>-0.05381062189846747</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.386336870682088e-06</v>
+        <v>0.04640318787575833</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05381062189846747</v>
+        <v>0.005049100009635963</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04640318787575833</v>
+        <v>1.90858743526352</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005049100009635963</v>
+        <v>2.114224633596253</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.9088695013747</v>
+        <v>4.113071846489574</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.114224633596253</v>
+        <v>3.671937822209569e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.113071846489574</v>
+        <v>2124535938.328981</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.671937822209569e-17</v>
+        <v>5.678672780449775e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2124535938.328981</v>
+        <v>165.7385299537175</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.678672780449775e-08</v>
+        <v>0.0001669262305357778</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>165.7385299537175</v>
+        <v>8.729182367875609</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001669262305357778</v>
+        <v>1.539608486887324</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.729182367875609</v>
+        <v>0.01271954921181545</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.539608486887324</v>
+        <v>3.149064705827725</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01271954921181545</v>
+        <v>0.9600415066928074</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.149064705827725</v>
+        <v>1.345254677843481</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9600415066928074</v>
+        <v>55</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.345254677843481</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.5658053184878503</v>
       </c>
     </row>
@@ -5785,72 +5701,66 @@
         <v>4.914220283781047e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9260344238028635</v>
+        <v>1.659977807784182e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3193256890704723</v>
+        <v>1.383584480069459e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.659977807784182e-07</v>
+        <v>-0.0562931604489355</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.383584480069459e-06</v>
+        <v>0.04720640853586464</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0562931604489355</v>
+        <v>0.005397729792330673</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04720640853586464</v>
+        <v>1.909489298730215</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005397729792330673</v>
+        <v>2.14455732725078</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.907598667760747</v>
+        <v>4.353392648536751</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.14455732725078</v>
+        <v>3.063485281438321e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.353392648536751</v>
+        <v>2556884744.224393</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.063485281438321e-17</v>
+        <v>4.7159710415739e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2556884744.224393</v>
+        <v>200.2802394509455</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.7159710415739e-08</v>
+        <v>0.0001442243466398864</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>200.2802394509455</v>
+        <v>10.00568028729472</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001442243466398864</v>
+        <v>1.18858256083577</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.00568028729472</v>
+        <v>0.01443882403195907</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.18858256083577</v>
+        <v>3.18425920434747</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01443882403195907</v>
+        <v>0.9586742810029111</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.18425920434747</v>
+        <v>1.337228836777733</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9586742810029111</v>
+        <v>82</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.337228836777733</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.6843249756151497</v>
       </c>
     </row>
@@ -5865,72 +5775,66 @@
         <v>4.732020404568286e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.9601384803066501</v>
+        <v>1.661731115262757e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2027719145374447</v>
+        <v>1.380813862511262e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.661731115262757e-07</v>
+        <v>-0.05852424562464939</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.380813862511262e-06</v>
+        <v>0.04896328291457231</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05852424562464939</v>
+        <v>0.005822807291375057</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04896328291457231</v>
+        <v>1.915287178764395</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005822807291375057</v>
+        <v>2.315822512599978</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.921396042607387</v>
+        <v>4.553412689763498</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.315822512599978</v>
+        <v>2.717095100589902e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.553412689763498</v>
+        <v>2827238565.30695</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.717095100589902e-17</v>
+        <v>4.265691251097165e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2827238565.30695</v>
+        <v>217.1849623376076</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.265691251097165e-08</v>
+        <v>0.0001357941977476627</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>217.1849623376076</v>
+        <v>10.62423375444775</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001357941977476627</v>
+        <v>1.068300040764769</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.62423375444775</v>
+        <v>0.01532768083621042</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.068300040764769</v>
+        <v>3.107439771248541</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01532768083621042</v>
+        <v>0.9583735139853441</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.107439771248541</v>
+        <v>1.340812851501431</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9583735139853441</v>
+        <v>82</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.340812851501431</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.7579807038127536</v>
       </c>
     </row>
@@ -5945,72 +5849,66 @@
         <v>4.535192212885056e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9816707568336765</v>
+        <v>1.645475190700606e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.117279112773423</v>
+        <v>1.378055394894582e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.645475190700606e-07</v>
+        <v>-0.06046836066813296</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.378055394894582e-06</v>
+        <v>0.05134733524919922</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06046836066813296</v>
+        <v>0.006293105868142665</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05134733524919922</v>
+        <v>1.92539935200176</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006293105868142665</v>
+        <v>2.170825171175362</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.938638595017822</v>
+        <v>4.640659626096627</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.170825171175362</v>
+        <v>2.615889741818793e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.640659626096627</v>
+        <v>2895714087.395896</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.615889741818793e-17</v>
+        <v>4.169377126159399e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2895714087.395896</v>
+        <v>219.346542261679</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.169377126159399e-08</v>
+        <v>0.0001473621306814537</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>219.346542261679</v>
+        <v>9.357917709542804</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001473621306814537</v>
+        <v>1.298127588809429</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.357917709542804</v>
+        <v>0.01290459371690374</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.298127588809429</v>
+        <v>3.259028068577166</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01290459371690374</v>
+        <v>0.9570056673845289</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.259028068577166</v>
+        <v>1.22763055228483</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9570056673845289</v>
+        <v>77</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.22763055228483</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7386208372208247</v>
       </c>
     </row>
@@ -6025,72 +5923,66 @@
         <v>4.327612346274285e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9893551389142305</v>
+        <v>1.611519394896559e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.07428176319520663</v>
+        <v>1.375338700449856e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.611519394896559e-07</v>
+        <v>-0.06206250615802534</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.375338700449856e-06</v>
+        <v>0.05410387644779469</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06206250615802534</v>
+        <v>0.00677876894478241</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05410387644779469</v>
+        <v>1.927128625903899</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00677876894478241</v>
+        <v>2.200170997490123</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.942514566998434</v>
+        <v>4.474512390462616</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.200170997490123</v>
+        <v>1.905938910166936e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.474512390462616</v>
+        <v>3804486013.982546</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.905938910166936e-17</v>
+        <v>3.162824148255546e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3804486013.982546</v>
+        <v>275.8677673990459</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.162824148255546e-08</v>
+        <v>0.0001740665438363324</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>275.8677673990459</v>
+        <v>8.967907716925106</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001740665438363324</v>
+        <v>1.524698910667975</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.967907716925106</v>
+        <v>0.01399901785404758</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.524698910667975</v>
+        <v>3.190535685719609</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01399901785404758</v>
+        <v>0.9563847444655312</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.190535685719609</v>
+        <v>1.262902696255501</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9563847444655312</v>
+        <v>77</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.262902696255501</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7328307084101265</v>
       </c>
     </row>
@@ -6467,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.310470555611441</v>
+        <v>1.323175288017182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.982222138577165</v>
@@ -6556,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.348088862473602</v>
+        <v>1.361398964829498</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.920739515918668</v>
@@ -6645,7 +6537,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.358999699914119</v>
+        <v>1.369521168146636</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.988561626152464</v>
@@ -6734,7 +6626,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.424909077832691</v>
+        <v>1.433193537335531</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.041461474343751</v>
@@ -6823,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.449696654231023</v>
+        <v>1.458664450735376</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.406431791998619</v>
@@ -6912,7 +6804,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452767774764</v>
+        <v>1.466579838185486</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.408696307513566</v>
@@ -7001,7 +6893,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.477934060193746</v>
+        <v>1.490264760993107</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.400698492578046</v>
@@ -7090,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515657915050958</v>
+        <v>1.527272846337616</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.616606232090736</v>
@@ -7179,7 +7071,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563078552232004</v>
+        <v>1.572459344541752</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.273963981193478</v>
@@ -7268,7 +7160,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.592758662659536</v>
+        <v>1.591405369353012</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.377382342430106</v>
@@ -7357,7 +7249,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.576557779247595</v>
+        <v>1.586610548304756</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.426115589303341</v>
@@ -7446,7 +7338,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58000634362875</v>
+        <v>1.584741649759746</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.422536872090671</v>
@@ -7535,7 +7427,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.631291441373557</v>
+        <v>1.627768699048814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.351935965173</v>
@@ -7624,7 +7516,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.638876844791155</v>
+        <v>1.633379991459531</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.42326047413874</v>
@@ -7713,7 +7605,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635089187705478</v>
+        <v>1.631638443402771</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.484063310329558</v>
@@ -7802,7 +7694,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.640735782889238</v>
+        <v>1.637069969156505</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.591488246802033</v>
@@ -7891,7 +7783,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658601867766727</v>
+        <v>1.651559130262762</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.577325279068921</v>
@@ -7980,7 +7872,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.674676208507319</v>
+        <v>1.667473789565051</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.721280139092186</v>
@@ -8069,7 +7961,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.68296101711274</v>
+        <v>1.674712532553672</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.755437041081396</v>
@@ -8158,7 +8050,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686872744923185</v>
+        <v>1.674843960848003</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.699946683629571</v>
@@ -8247,7 +8139,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718788433088462</v>
+        <v>1.71045999668597</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.909524519051534</v>
@@ -8336,7 +8228,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.723536438125472</v>
+        <v>1.716577343921132</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.026687199940303</v>
@@ -8425,7 +8317,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700925003378668</v>
+        <v>1.699226443449097</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.810503989613526</v>
@@ -8514,7 +8406,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697830499051508</v>
+        <v>1.698013371139524</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.626828972346333</v>
@@ -8603,7 +8495,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.748261061022755</v>
+        <v>1.742171804430925</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.836653120165261</v>
@@ -8692,7 +8584,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.758111453448827</v>
+        <v>1.754268023264657</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.92648081401211</v>
@@ -8781,7 +8673,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.765462593370392</v>
+        <v>1.764041244398057</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.995414395400739</v>
@@ -8870,7 +8762,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737560036489648</v>
+        <v>1.7371186890773</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.540071188628993</v>
@@ -8959,7 +8851,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.759960954015672</v>
+        <v>1.759669483227638</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.701887897693086</v>
@@ -9048,7 +8940,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.769455576752455</v>
+        <v>1.765867803335373</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.769270713162556</v>
@@ -9137,7 +9029,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778356431543107</v>
+        <v>1.775895059416598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.718295436979715</v>
@@ -9226,7 +9118,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.778392129422285</v>
+        <v>1.776376465631249</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.631909092502037</v>
@@ -9315,7 +9207,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.796292261982457</v>
+        <v>1.792691470269607</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.714261413608805</v>
@@ -9404,7 +9296,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.794087270514155</v>
+        <v>1.790647883017736</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.804479344812885</v>
@@ -9493,7 +9385,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.764733095000229</v>
+        <v>1.766509537586062</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.723394116996077</v>
@@ -9582,7 +9474,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.766343301315718</v>
+        <v>1.763305249188091</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.799108653192367</v>
@@ -9671,7 +9563,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.77189845991842</v>
+        <v>1.773690245719821</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.770261960907148</v>
@@ -9760,7 +9652,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.772915509579392</v>
+        <v>1.778009293830495</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.662650937002672</v>
@@ -9849,7 +9741,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.792487714302067</v>
+        <v>1.790860634047699</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.804426706910478</v>
@@ -9938,7 +9830,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.798948489594534</v>
+        <v>1.800070084703248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.742945745961791</v>
@@ -10027,7 +9919,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.795280574907945</v>
+        <v>1.797740857090692</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.711791530063632</v>
@@ -10116,7 +10008,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.739237913421571</v>
+        <v>1.749008097669188</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.482043120441473</v>
@@ -10205,7 +10097,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.744380830074585</v>
+        <v>1.758621890316624</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.647509758978094</v>
@@ -10294,7 +10186,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.738948775842221</v>
+        <v>1.752866405312329</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.600133845383954</v>
@@ -10383,7 +10275,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.735553770653529</v>
+        <v>1.75071278310131</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.831449043059884</v>
@@ -10472,7 +10364,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.730964849308709</v>
+        <v>1.743335018045473</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.782731638706211</v>
@@ -10561,7 +10453,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737113953194171</v>
+        <v>1.74338773489223</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.847175268217247</v>
@@ -10650,7 +10542,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.73484096582319</v>
+        <v>1.741911691508377</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.901674453426618</v>
@@ -10739,7 +10631,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.718810382682209</v>
+        <v>1.730505484957163</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.076369962294429</v>
@@ -10828,7 +10720,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.7386786184968</v>
+        <v>1.74223739153438</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.940898971018129</v>
@@ -10917,7 +10809,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.718666172786767</v>
+        <v>1.724355191688014</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.688823904940644</v>
@@ -11006,7 +10898,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.707819980038408</v>
+        <v>1.708214627889834</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.491455722530863</v>
@@ -11095,7 +10987,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.726190353068356</v>
+        <v>1.721976205906473</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.748358811158703</v>
@@ -11184,7 +11076,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.717140956756019</v>
+        <v>1.711488157559401</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.834151557687175</v>
@@ -11273,7 +11165,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.713125912787134</v>
+        <v>1.70330805726365</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.802961398110698</v>
@@ -11362,7 +11254,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.708365972130323</v>
+        <v>1.689031328372029</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.644456927818858</v>
@@ -11451,7 +11343,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.75658390156358</v>
+        <v>1.729645947514231</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.081607538950841</v>
@@ -11540,7 +11432,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.768288790549725</v>
+        <v>1.734148257578224</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.125515359658439</v>
@@ -11629,7 +11521,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.761287303314494</v>
+        <v>1.722834361003026</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.041938385918626</v>
@@ -11718,7 +11610,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.741591405382855</v>
+        <v>1.707013210531513</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.030592690392822</v>
@@ -11807,7 +11699,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.73610749505162</v>
+        <v>1.700559264259235</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.971596827177974</v>
@@ -12093,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415820817584815</v>
+        <v>1.4380465698524</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.196588199951655</v>
@@ -12182,7 +12074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452934045381399</v>
+        <v>1.476393912488442</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.154733589440666</v>
@@ -12271,7 +12163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.472316837710444</v>
+        <v>1.493463098189592</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.260300833557995</v>
@@ -12360,7 +12252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531768414321797</v>
+        <v>1.547326429896126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.350845714194245</v>
@@ -12449,7 +12341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.559263252385165</v>
+        <v>1.57575422884999</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.647756949003371</v>
@@ -12538,7 +12430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.606967224552041</v>
+        <v>1.613253227760335</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.565615582850642</v>
@@ -12627,7 +12519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623268197302189</v>
+        <v>1.627157835008043</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.776424903272531</v>
@@ -12716,7 +12608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63502272595257</v>
+        <v>1.641443888734619</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.654229091287335</v>
@@ -12805,7 +12697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.648771737852623</v>
+        <v>1.648272965656621</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.459991571957416</v>
@@ -12894,7 +12786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668943675809809</v>
+        <v>1.666540075594644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.462526694442944</v>
@@ -12983,7 +12875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678870115371309</v>
+        <v>1.671342757804782</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.541946192056394</v>
@@ -13072,7 +12964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.71069325686793</v>
+        <v>1.694434415053367</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.00156039375416</v>
@@ -13161,7 +13053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.722254843457044</v>
+        <v>1.705654043288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.109133443670606</v>
@@ -13250,7 +13142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.715512236967808</v>
+        <v>1.704681852973299</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.135392645797367</v>
@@ -13339,7 +13231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.692788034592993</v>
+        <v>1.678971826544496</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.132878059549345</v>
@@ -13428,7 +13320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.685225081461235</v>
+        <v>1.671759061353311</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.999250763059649</v>
@@ -13517,7 +13409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683242783613412</v>
+        <v>1.670478073427191</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.265360792510409</v>
@@ -13606,7 +13498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.703301934379342</v>
+        <v>1.682017430260729</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.038160478145173</v>
@@ -13695,7 +13587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.721718718835169</v>
+        <v>1.697990253937416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.911307860316263</v>
@@ -13784,7 +13676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.710458982974913</v>
+        <v>1.683884582626251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.288366952135632</v>
@@ -13873,7 +13765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710552717979681</v>
+        <v>1.68957084960348</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.520481086235058</v>
@@ -13962,7 +13854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.703109715568788</v>
+        <v>1.687056479260459</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.319776520181369</v>
@@ -14051,7 +13943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700791636718432</v>
+        <v>1.682744077805755</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.48146094777291</v>
@@ -14140,7 +14032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695799378167955</v>
+        <v>1.684854963241317</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.184925121725658</v>
@@ -14229,7 +14121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.699238592526668</v>
+        <v>1.686207454806866</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.171105759775558</v>
@@ -14318,7 +14210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687450187075477</v>
+        <v>1.676974018243356</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.570846777799332</v>
@@ -14407,7 +14299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.698518428654944</v>
+        <v>1.687995198236204</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.459264477162098</v>
@@ -14496,7 +14388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.688667037414022</v>
+        <v>1.680082763025724</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.332691972579179</v>
@@ -14585,7 +14477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.695153376633919</v>
+        <v>1.683861909942266</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.593085794972136</v>
@@ -14674,7 +14566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713850997976763</v>
+        <v>1.704414666585405</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.376501125031547</v>
@@ -14763,7 +14655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.716351073266225</v>
+        <v>1.704281250381485</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.398294069926067</v>
@@ -14852,7 +14744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724210679562994</v>
+        <v>1.710333661807332</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.511478896025377</v>
@@ -14941,7 +14833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722412843716385</v>
+        <v>1.710503862770606</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.43757967068073</v>
@@ -15030,7 +14922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711478729383044</v>
+        <v>1.696388029558024</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.505486972434825</v>
@@ -15119,7 +15011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701448888427082</v>
+        <v>1.685760966777185</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.475584083680665</v>
@@ -15208,7 +15100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645130969036446</v>
+        <v>1.634959189841524</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.390340388539384</v>
@@ -15297,7 +15189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651108557825913</v>
+        <v>1.640393732817523</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.405140652428923</v>
@@ -15386,7 +15278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660118966537925</v>
+        <v>1.647761093446855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.319179889224301</v>
@@ -15475,7 +15367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.660019406696545</v>
+        <v>1.644483346343238</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.427612110524262</v>
@@ -15564,7 +15456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65102020658976</v>
+        <v>1.641580866387828</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.332472299860544</v>
@@ -15653,7 +15545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.654638553996696</v>
+        <v>1.648036265947083</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.443877415175535</v>
@@ -15742,7 +15634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.412044860523669</v>
+        <v>1.424174820657089</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.567030574621739</v>
@@ -15831,7 +15723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.402054852018121</v>
+        <v>1.417377110160894</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.594968944911894</v>
@@ -15920,7 +15812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.424359557606999</v>
+        <v>1.44289933083165</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.625823710454334</v>
@@ -16009,7 +15901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.445115681152116</v>
+        <v>1.467670848947856</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.641664020210325</v>
@@ -16098,7 +15990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.472241020950401</v>
+        <v>1.500586427805063</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.665224546339968</v>
@@ -16187,7 +16079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.484114186395152</v>
+        <v>1.515801820298716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.689538698422101</v>
@@ -16276,7 +16168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.437782785170355</v>
+        <v>1.461248116227231</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.741953289684588</v>
@@ -16365,7 +16257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.443429757251089</v>
+        <v>1.470080404183896</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.748527014374764</v>
@@ -16454,7 +16346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466598072443656</v>
+        <v>1.494486663467138</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.774058225582342</v>
@@ -16543,7 +16435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.484651695928242</v>
+        <v>1.51616634666412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.785197855468842</v>
@@ -16632,7 +16524,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.488618411822005</v>
+        <v>1.508774521824495</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.810277519405759</v>
@@ -16721,7 +16613,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.462002263296519</v>
+        <v>1.49799023712328</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.830565427839349</v>
@@ -16810,7 +16702,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.473755690643772</v>
+        <v>1.512215113339968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.858969085847219</v>
@@ -16899,7 +16791,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.481338710794281</v>
+        <v>1.519425310986069</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.874047350485536</v>
@@ -16988,7 +16880,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.493339845418364</v>
+        <v>1.531682442652923</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.910109575664055</v>
@@ -17077,7 +16969,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619784964586417</v>
+        <v>1.654960878306374</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.244635481379893</v>
@@ -17166,7 +17058,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.637784999397968</v>
+        <v>1.67444568331511</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.218727570447264</v>
@@ -17255,7 +17147,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.639618116457245</v>
+        <v>1.674970609359522</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.217474008913082</v>
@@ -17344,7 +17236,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640473616059731</v>
+        <v>1.677717112721522</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.20242596463914</v>
@@ -17433,7 +17325,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.631064818707296</v>
+        <v>1.668675410471415</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.182854868051229</v>
@@ -17719,7 +17611,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.645754986075713</v>
+        <v>1.662757967567608</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.59741077695021</v>
@@ -17808,7 +17700,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.672257096232674</v>
+        <v>1.685988718264454</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.706543919499209</v>
@@ -17897,7 +17789,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68764801968899</v>
+        <v>1.700183792524012</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.770713715487112</v>
@@ -17986,7 +17878,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687300768243039</v>
+        <v>1.695003654236114</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.636189978219694</v>
@@ -18075,7 +17967,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.714864826450681</v>
+        <v>1.718835877379134</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.548082667509517</v>
@@ -18164,7 +18056,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.7146394558594</v>
+        <v>1.719699010845213</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.290221803158837</v>
@@ -18253,7 +18145,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.727686163568593</v>
+        <v>1.731711060660061</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.061536515670965</v>
@@ -18342,7 +18234,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.749265099578266</v>
+        <v>1.745905455894438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.298972212951686</v>
@@ -18431,7 +18323,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.784546259561774</v>
+        <v>1.771257952794536</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.809167700145045</v>
@@ -18520,7 +18412,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.796729480176037</v>
+        <v>1.767460593892559</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.392984107210439</v>
@@ -18609,7 +18501,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.781816416635987</v>
+        <v>1.763628683604605</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.464995963248541</v>
@@ -18698,7 +18590,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.788656660407993</v>
+        <v>1.767088974714431</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.301280801679466</v>
@@ -18787,7 +18679,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.810748164680357</v>
+        <v>1.777104491069855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.508831241732561</v>
@@ -18876,7 +18768,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.80932149828122</v>
+        <v>1.77749202002778</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.367097326316437</v>
@@ -18965,7 +18857,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.811933734403903</v>
+        <v>1.784066028453601</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.350311958902073</v>
@@ -19054,7 +18946,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.818729827376057</v>
+        <v>1.788132159079496</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.745567640396615</v>
@@ -19143,7 +19035,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.815428241842662</v>
+        <v>1.788091288055216</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.640227411308606</v>
@@ -19232,7 +19124,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.821077654190569</v>
+        <v>1.793206108172293</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.392698771811058</v>
@@ -19321,7 +19213,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.820629211722625</v>
+        <v>1.791807728624148</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.641165436605102</v>
@@ -19410,7 +19302,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.822990552446389</v>
+        <v>1.794188809841278</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.768764605936154</v>
@@ -19499,7 +19391,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.838297351086456</v>
+        <v>1.808940912557898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.038175140342714</v>
@@ -19588,7 +19480,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.838800213622839</v>
+        <v>1.812622164374895</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.012075836051162</v>
@@ -19677,7 +19569,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.832023407564694</v>
+        <v>1.810839466693787</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.155332155650734</v>
@@ -19766,7 +19658,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.828248455098157</v>
+        <v>1.81330264742265</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.616715996875625</v>
@@ -19855,7 +19747,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.85409398837766</v>
+        <v>1.839264879160841</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.971609354891959</v>
@@ -19944,7 +19836,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.859384639083298</v>
+        <v>1.844382719303057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.993748943384719</v>
@@ -20033,7 +19925,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.865336358826248</v>
+        <v>1.85084719095031</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.115200015211927</v>
@@ -20122,7 +20014,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.857329166418986</v>
+        <v>1.852752413497139</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.643013573938528</v>
@@ -20211,7 +20103,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.868502824322763</v>
+        <v>1.862990605048988</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.989588890659971</v>
@@ -20300,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.872251788612592</v>
+        <v>1.862067288027028</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.777850270023409</v>
@@ -20389,7 +20281,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.876255184904416</v>
+        <v>1.870306845200231</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.616412599915181</v>
@@ -20478,7 +20370,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.881579432823022</v>
+        <v>1.872806902580938</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.693645971750782</v>
@@ -20567,7 +20459,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.8936821301297</v>
+        <v>1.882902253954204</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.198925759305895</v>
@@ -20656,7 +20548,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.894876606955619</v>
+        <v>1.886359728415611</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.717949694602265</v>
@@ -20745,7 +20637,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.889935442059816</v>
+        <v>1.885789367300523</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.79049878610436</v>
@@ -20834,7 +20726,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.896683812312565</v>
+        <v>1.897343289262072</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.127109434758616</v>
@@ -20923,7 +20815,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.898192235925654</v>
+        <v>1.896314688441376</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.871739860829539</v>
@@ -21012,7 +20904,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.899090393597864</v>
+        <v>1.898984926793484</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.911730515180896</v>
@@ -21101,7 +20993,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.912756892127491</v>
+        <v>1.915196534309993</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.80979659132564</v>
@@ -21190,7 +21082,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.911715064350395</v>
+        <v>1.915848403012602</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.036019838913692</v>
@@ -21279,7 +21171,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.907186658221445</v>
+        <v>1.916709472099764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.840912653086473</v>
@@ -21368,7 +21260,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.874143863513086</v>
+        <v>1.887804207062431</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.683830402514677</v>
@@ -21457,7 +21349,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.877277577211836</v>
+        <v>1.884884172932673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.645888168058784</v>
@@ -21546,7 +21438,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.874422704476097</v>
+        <v>1.877744710252541</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.326427272475437</v>
@@ -21635,7 +21527,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.873684012244215</v>
+        <v>1.874522631206823</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.54586378653311</v>
@@ -21724,7 +21616,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.876135947896272</v>
+        <v>1.875826639198782</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.926410356274027</v>
@@ -21813,7 +21705,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.88164956223964</v>
+        <v>1.88117729452166</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.812845779765685</v>
@@ -21902,7 +21794,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.879570321345012</v>
+        <v>1.878628132368156</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.841686070376943</v>
@@ -21991,7 +21883,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.879894614387567</v>
+        <v>1.876930403814955</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.958979150070855</v>
@@ -22080,7 +21972,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.88575107756706</v>
+        <v>1.876847026755559</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.635479258711406</v>
@@ -22169,7 +22061,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.88067962786572</v>
+        <v>1.860146596240489</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.753346692530243</v>
@@ -22258,7 +22150,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.881626504846715</v>
+        <v>1.860480797263361</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.316519619658544</v>
@@ -22347,7 +22239,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.899058791344341</v>
+        <v>1.867974540418305</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.032556804197564</v>
@@ -22436,7 +22328,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.894954161365447</v>
+        <v>1.852273930740488</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.909408391905102</v>
@@ -22525,7 +22417,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.895835732896889</v>
+        <v>1.846082644639687</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.932331154165898</v>
@@ -22614,7 +22506,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.899523776018758</v>
+        <v>1.840448049476514</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.829495412082377</v>
@@ -22703,7 +22595,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.928750664512334</v>
+        <v>1.8583617168901</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.397075108167605</v>
@@ -22792,7 +22684,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.933070898409934</v>
+        <v>1.86935638057671</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.270734212454895</v>
@@ -22881,7 +22773,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.935940272709864</v>
+        <v>1.875931105035114</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.539639857949805</v>
@@ -22970,7 +22862,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.927228271446143</v>
+        <v>1.866789648040982</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.368358342814997</v>
@@ -23059,7 +22951,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.921036051750666</v>
+        <v>1.85789683230927</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.397996987642331</v>
@@ -23345,7 +23237,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.548418512949526</v>
+        <v>1.587267838089822</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.55028555242467</v>
@@ -23434,7 +23326,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565610857425056</v>
+        <v>1.603177295834551</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.362175808654554</v>
@@ -23523,7 +23415,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580401024788011</v>
+        <v>1.618384197678394</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.625962086564568</v>
@@ -23612,7 +23504,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594981511117289</v>
+        <v>1.630821195617033</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357022201576639</v>
@@ -23701,7 +23593,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662834705738061</v>
+        <v>1.69080842100825</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.848615390683063</v>
@@ -23790,7 +23682,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.649815877485824</v>
+        <v>1.67770572596592</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.977177127374143</v>
@@ -23879,7 +23771,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.657104528984496</v>
+        <v>1.682307818820813</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.728738585249076</v>
@@ -23968,7 +23860,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63033753784941</v>
+        <v>1.659068780457204</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.540070909766374</v>
@@ -24057,7 +23949,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.650316514152767</v>
+        <v>1.672669611127815</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.680423670693489</v>
@@ -24146,7 +24038,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641905389707975</v>
+        <v>1.661277901763236</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.806175772130706</v>
@@ -24235,7 +24127,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.646131967039392</v>
+        <v>1.663486258999619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.455582320644011</v>
@@ -24324,7 +24216,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656695815772953</v>
+        <v>1.673219320853537</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.692715197260726</v>
@@ -24413,7 +24305,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661818913449813</v>
+        <v>1.680928555163141</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.634970267501341</v>
@@ -24502,7 +24394,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.677517270300579</v>
+        <v>1.698600206683762</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.640480057444917</v>
@@ -24591,7 +24483,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.684508778277606</v>
+        <v>1.704598158285904</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.752431529566275</v>
@@ -24680,7 +24572,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688399569524917</v>
+        <v>1.709959832018144</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.941645777175026</v>
@@ -24769,7 +24661,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.679367481121466</v>
+        <v>1.703708751804815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.732684732899434</v>
@@ -24858,7 +24750,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.683967645744213</v>
+        <v>1.709450745245747</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.741254396963909</v>
@@ -24947,7 +24839,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689029112608523</v>
+        <v>1.717820339783888</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.743787979244252</v>
@@ -25036,7 +24928,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.690228588692997</v>
+        <v>1.715569943129493</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.518437076197721</v>
@@ -25125,7 +25017,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705167346682102</v>
+        <v>1.729924780105434</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.947075581618656</v>
@@ -25214,7 +25106,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.720280729579816</v>
+        <v>1.747805780280948</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.80948812901875</v>
@@ -25303,7 +25195,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.740094620700413</v>
+        <v>1.758726358945256</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.333237284988722</v>
@@ -25392,7 +25284,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72922393969434</v>
+        <v>1.758988738103348</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.183382401192796</v>
@@ -25481,7 +25373,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.752954250691125</v>
+        <v>1.783291578631384</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.204670112637866</v>
@@ -25570,7 +25462,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.756499490150612</v>
+        <v>1.789109103402873</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.51826724888257</v>
@@ -25659,7 +25551,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.780013509080315</v>
+        <v>1.805511908582035</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.995317627545554</v>
@@ -25748,7 +25640,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.780420636655256</v>
+        <v>1.813979513298832</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.297518701011303</v>
@@ -25837,7 +25729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.778754143022751</v>
+        <v>1.81366221400473</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.479288046649976</v>
@@ -25926,7 +25818,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.786364241890466</v>
+        <v>1.820558624864133</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.44525266843295</v>
@@ -26015,7 +25907,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.795903340108108</v>
+        <v>1.828895508469288</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.036170765279178</v>
@@ -26104,7 +25996,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.808646338857576</v>
+        <v>1.84246425009615</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.469490619162294</v>
@@ -26193,7 +26085,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.816625902265151</v>
+        <v>1.850978765010835</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.160878248599606</v>
@@ -26282,7 +26174,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.829179426056399</v>
+        <v>1.861819634405197</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.241395072133713</v>
@@ -26371,7 +26263,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.83883496721696</v>
+        <v>1.868358307015088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.959534556936187</v>
@@ -26460,7 +26352,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.848135928342898</v>
+        <v>1.878186631718093</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.523513634511359</v>
@@ -26549,7 +26441,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.861688375030698</v>
+        <v>1.891375371859888</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.527306093764687</v>
@@ -26638,7 +26530,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.882987725257598</v>
+        <v>1.90978610792339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.963585443986672</v>
@@ -26727,7 +26619,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.898772172773927</v>
+        <v>1.926812187652394</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.12579906641579</v>
@@ -26816,7 +26708,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.896840107454697</v>
+        <v>1.930114557773228</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.869141965534686</v>
@@ -26905,7 +26797,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.898039218468753</v>
+        <v>1.933509791982882</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.091895679715668</v>
@@ -26994,7 +26886,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.87797201444983</v>
+        <v>1.915945998855424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.506714391706933</v>
@@ -27083,7 +26975,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.870241084244848</v>
+        <v>1.904132544632591</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.505520228717891</v>
@@ -27172,7 +27064,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.876046664480817</v>
+        <v>1.90425645886297</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.50976618168111</v>
@@ -27261,7 +27153,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.877460644264688</v>
+        <v>1.902013891747716</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.978037846612962</v>
@@ -27350,7 +27242,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.876191596758994</v>
+        <v>1.89560778708373</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.66142197101042</v>
@@ -27439,7 +27331,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.879032267271716</v>
+        <v>1.891657584496249</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.967569470283247</v>
@@ -27528,7 +27420,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.841795753763222</v>
+        <v>1.856341391682992</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.281303869811742</v>
@@ -27617,7 +27509,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.822723165161338</v>
+        <v>1.83112348094772</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.207954805146706</v>
@@ -27706,7 +27598,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817172018425791</v>
+        <v>1.827344212624839</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.38908642293674</v>
@@ -27795,7 +27687,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.80401505452543</v>
+        <v>1.813691127367181</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.339051308377822</v>
@@ -27884,7 +27776,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.783954582331931</v>
+        <v>1.789708200833085</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.249639326690343</v>
@@ -27973,7 +27865,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.767221746269761</v>
+        <v>1.774685406091102</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.182772411033043</v>
@@ -28062,7 +27954,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.752323114710296</v>
+        <v>1.754952264266353</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.284147648258765</v>
@@ -28151,7 +28043,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.7443795134534</v>
+        <v>1.741067826348348</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.078582012743883</v>
@@ -28240,7 +28132,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.729204381389003</v>
+        <v>1.714364481593163</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.159319262625598</v>
@@ -28329,7 +28221,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.744204945076008</v>
+        <v>1.733454869832966</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.978446928757827</v>
@@ -28418,7 +28310,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.747762652870175</v>
+        <v>1.73552572162811</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.187570164099291</v>
@@ -28507,7 +28399,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.744566547991826</v>
+        <v>1.73699698952817</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.190429907477656</v>
@@ -28596,7 +28488,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.743163127761007</v>
+        <v>1.734541578412946</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.052832231769355</v>
@@ -28685,7 +28577,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.741695129049994</v>
+        <v>1.731118229195039</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.278754668381104</v>
@@ -28971,7 +28863,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.220153082064807</v>
+        <v>1.218935100814331</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.131557640605982</v>
@@ -29060,7 +28952,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.25189064104278</v>
+        <v>1.250383175392346</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.893125977389052</v>
@@ -29149,7 +29041,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.269103513046755</v>
+        <v>1.270912309887275</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.096945089549011</v>
@@ -29238,7 +29130,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.287858855464393</v>
+        <v>1.288897742627662</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.935911254923989</v>
@@ -29327,7 +29219,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.322406397042834</v>
+        <v>1.325139532102104</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.278279549777468</v>
@@ -29416,7 +29308,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355739391701136</v>
+        <v>1.355668900628658</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.01693163288254</v>
@@ -29505,7 +29397,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.36939835903556</v>
+        <v>1.369337579586217</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.263143637472716</v>
@@ -29594,7 +29486,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.373217915577503</v>
+        <v>1.377240933100742</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.290341844494648</v>
@@ -29683,7 +29575,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401174207866051</v>
+        <v>1.406230646558798</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.045965833798398</v>
@@ -29772,7 +29664,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433353506435869</v>
+        <v>1.430038777989133</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.180875072689678</v>
@@ -29861,7 +29753,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.41963131958757</v>
+        <v>1.421819568133249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.248302275675869</v>
@@ -29950,7 +29842,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.438355599278175</v>
+        <v>1.44147782682165</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.25553159780678</v>
@@ -30039,7 +29931,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471349602820496</v>
+        <v>1.466037097025915</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.026284835534835</v>
@@ -30128,7 +30020,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482572747003686</v>
+        <v>1.484632738489257</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.234018393161036</v>
@@ -30217,7 +30109,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.447405199446242</v>
+        <v>1.452434190692357</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.25056094402892</v>
@@ -30306,7 +30198,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44092723919394</v>
+        <v>1.452223401903295</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.26575541272562</v>
@@ -30395,7 +30287,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.413224139007316</v>
+        <v>1.423487425172007</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.099013159015694</v>
@@ -30484,7 +30376,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.426946759588973</v>
+        <v>1.436224605449159</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.106378942831441</v>
@@ -30573,7 +30465,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.422771579756341</v>
+        <v>1.433277089092196</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.097950884475726</v>
@@ -30662,7 +30554,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.387610079582996</v>
+        <v>1.395806116234999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.136884410600703</v>
@@ -30751,7 +30643,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.393438877434884</v>
+        <v>1.404795376228293</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.062027355299896</v>
@@ -30840,7 +30732,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.378506225156586</v>
+        <v>1.388009637762373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.257895082050096</v>
@@ -30929,7 +30821,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384022862369022</v>
+        <v>1.389027139076345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.169167367807397</v>
@@ -31018,7 +30910,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.362421638968604</v>
+        <v>1.371099444005663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.224255258491042</v>
@@ -31107,7 +30999,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.370499369154401</v>
+        <v>1.377179459314551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.15889626294569</v>
@@ -31196,7 +31088,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.369880249512967</v>
+        <v>1.379334927443746</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.224361357810783</v>
@@ -31285,7 +31177,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.372623104511434</v>
+        <v>1.383622152717647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.269387518412998</v>
@@ -31374,7 +31266,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.370085343734251</v>
+        <v>1.379970948034561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.219521070294981</v>
@@ -31463,7 +31355,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.370230272953869</v>
+        <v>1.379877765191371</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.272112536574017</v>
@@ -31552,7 +31444,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.392001401492984</v>
+        <v>1.400170631044488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.201259954053656</v>
@@ -31641,7 +31533,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.401892261943122</v>
+        <v>1.409681906806652</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.190318879860687</v>
@@ -31730,7 +31622,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.429357933984175</v>
+        <v>1.428790359104873</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.255881063222692</v>
@@ -31819,7 +31711,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.431329603436719</v>
+        <v>1.440361343808138</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.210846407937837</v>
@@ -31908,7 +31800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.437854970846292</v>
+        <v>1.449032357821013</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.234806346624499</v>
@@ -31997,7 +31889,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459812017936346</v>
+        <v>1.468985229104998</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.178352993586364</v>
@@ -32086,7 +31978,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.464394054584817</v>
+        <v>1.474229935943145</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.230760505747148</v>
@@ -32175,7 +32067,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.493766658056988</v>
+        <v>1.503753737111785</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.261850989759881</v>
@@ -32264,7 +32156,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499401001012075</v>
+        <v>1.508209892180141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.370189930743159</v>
@@ -32353,7 +32245,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.528022716740048</v>
+        <v>1.537425511135825</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.246027170431233</v>
@@ -32442,7 +32334,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.546133829993341</v>
+        <v>1.55554026784909</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.297980826508375</v>
@@ -32531,7 +32423,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553134475112929</v>
+        <v>1.560098556002188</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.164302711832067</v>
@@ -32620,7 +32512,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517604474795624</v>
+        <v>1.527999103093715</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.192136846144167</v>
@@ -32709,7 +32601,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531439461070138</v>
+        <v>1.545311607173108</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.283469526381923</v>
@@ -32798,7 +32690,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.540330420355467</v>
+        <v>1.552357032238751</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.33594761192784</v>
@@ -32887,7 +32779,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.539006673680538</v>
+        <v>1.555559106048027</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.253569339998181</v>
@@ -32976,7 +32868,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.533895967641921</v>
+        <v>1.554598111217107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.336603674187978</v>
@@ -33065,7 +32957,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.55935765285354</v>
+        <v>1.581871057494782</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.618169339915693</v>
@@ -33154,7 +33046,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.558486093963793</v>
+        <v>1.579831241983849</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.665029066418722</v>
@@ -33243,7 +33135,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574628618677863</v>
+        <v>1.593791902266772</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.56638841077271</v>
@@ -33332,7 +33224,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.59441551973738</v>
+        <v>1.612986933382711</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.862630474378805</v>
@@ -33421,7 +33313,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.587469014753093</v>
+        <v>1.611959418607785</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.768176048485944</v>
@@ -33510,7 +33402,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609298133254708</v>
+        <v>1.63149331675406</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.978387849120539</v>
@@ -33599,7 +33491,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.633228019891812</v>
+        <v>1.663237839544738</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.718207903816781</v>
@@ -33688,7 +33580,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641442806479035</v>
+        <v>1.670667421983613</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.99006272509404</v>
@@ -33777,7 +33669,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650263389326507</v>
+        <v>1.683220185953432</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.093670356615675</v>
@@ -33866,7 +33758,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650415046984676</v>
+        <v>1.683837964275896</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.030313596665337</v>
@@ -33955,7 +33847,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.686112092941696</v>
+        <v>1.715614848760933</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.984699407986714</v>
@@ -34044,7 +33936,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68662472754411</v>
+        <v>1.718366894453569</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.057862183241291</v>
@@ -34133,7 +34025,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.6764931480128</v>
+        <v>1.704909091336336</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.855461689160613</v>
@@ -34222,7 +34114,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.662837032699669</v>
+        <v>1.699990509178458</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.864680562608474</v>
@@ -34311,7 +34203,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.654796816858616</v>
+        <v>1.692330345366573</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.968036432167031</v>
@@ -34597,7 +34489,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.472105341885371</v>
+        <v>1.506626621191894</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.89459889254524</v>
@@ -34686,7 +34578,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588962417455737</v>
+        <v>1.628389879649784</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.192139265047016</v>
@@ -34775,7 +34667,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599790252632584</v>
+        <v>1.643671882350784</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.110100199989672</v>
@@ -34864,7 +34756,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.745176902218555</v>
+        <v>1.776994282690549</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.288276547490421</v>
@@ -34953,7 +34845,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.800710048014117</v>
+        <v>1.835998761143168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.74141579566579</v>
@@ -35042,7 +34934,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805576769462599</v>
+        <v>1.845475902524907</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.397700462344269</v>
@@ -35131,7 +35023,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.818467794222263</v>
+        <v>1.860721182827873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.54019512685678</v>
@@ -35220,7 +35112,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.831490047867893</v>
+        <v>1.875741718774864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.534582990580232</v>
@@ -35309,7 +35201,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.860674132195662</v>
+        <v>1.909627574976156</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.430066461983494</v>
@@ -35398,7 +35290,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.880286724460856</v>
+        <v>1.91705326224855</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.431100856904616</v>
@@ -35487,7 +35379,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.867966748998437</v>
+        <v>1.909641355928554</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.443047731861029</v>
@@ -35576,7 +35468,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.866430892652923</v>
+        <v>1.908778356240562</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.747867850467882</v>
@@ -35665,7 +35557,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.885377174888956</v>
+        <v>1.923363880954959</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.112850390360396</v>
@@ -35754,7 +35646,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.893320715366589</v>
+        <v>1.928616250081262</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.723631206309151</v>
@@ -35843,7 +35735,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.886143211525467</v>
+        <v>1.921620618041278</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.450671773372899</v>
@@ -35932,7 +35824,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.886167909726822</v>
+        <v>1.921536664420749</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.460569592503837</v>
@@ -36021,7 +35913,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.894582021184733</v>
+        <v>1.927309296650124</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.802000615535103</v>
@@ -36110,7 +36002,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.905111129403218</v>
+        <v>1.930792412556919</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.967397003138924</v>
@@ -36199,7 +36091,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.915535404023301</v>
+        <v>1.944985282055805</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.900294855232445</v>
@@ -36288,7 +36180,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.914265477512638</v>
+        <v>1.941732391867353</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.045042183533553</v>
@@ -36377,7 +36269,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.931124289688447</v>
+        <v>1.955242250796045</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.744530111162601</v>
@@ -36466,7 +36358,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.929576126917773</v>
+        <v>1.95083119026482</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.869739337128762</v>
@@ -36555,7 +36447,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.915849913712714</v>
+        <v>1.940205886531536</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.935892352738915</v>
@@ -36644,7 +36536,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.906554274262251</v>
+        <v>1.93005013222686</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.521845381907263</v>
@@ -36733,7 +36625,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.924618203575528</v>
+        <v>1.941646842402046</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.384432633185608</v>
@@ -36822,7 +36714,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.923774979165178</v>
+        <v>1.943053483804523</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.710066912527055</v>
@@ -36911,7 +36803,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.924864767169573</v>
+        <v>1.947370736061951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.689307097784331</v>
@@ -37000,7 +36892,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.913835857081773</v>
+        <v>1.935931622886077</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.481060494566457</v>
@@ -37089,7 +36981,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.923138072318322</v>
+        <v>1.946729307400575</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.477404747564453</v>
@@ -37178,7 +37070,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.928173620109457</v>
+        <v>1.951271603653918</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.9031556630114</v>
@@ -37267,7 +37159,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.924577348432382</v>
+        <v>1.946771110387774</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.582892300851303</v>
@@ -37356,7 +37248,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.924096543749483</v>
+        <v>1.946593220227709</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.295469116632902</v>
@@ -37445,7 +37337,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.935894269573851</v>
+        <v>1.96078294336247</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.697827705506459</v>
@@ -37534,7 +37426,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.931320929254948</v>
+        <v>1.95519799334545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.498373087658749</v>
@@ -37623,7 +37515,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.910544955576406</v>
+        <v>1.934477180691164</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.471468442172847</v>
@@ -37712,7 +37604,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.905302416074015</v>
+        <v>1.932285978506988</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.48261150234186</v>
@@ -37801,7 +37693,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.906317714025596</v>
+        <v>1.937813868742445</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.992928995864632</v>
@@ -37890,7 +37782,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.906782871264583</v>
+        <v>1.938895092502701</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.603490675696956</v>
@@ -37979,7 +37871,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.922968391373136</v>
+        <v>1.953966808070362</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.720244246474602</v>
@@ -38068,7 +37960,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.931392224130955</v>
+        <v>1.965257502147856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.77256995968154</v>
@@ -38157,7 +38049,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.930583261149232</v>
+        <v>1.967209929515536</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.563224056667633</v>
@@ -38246,7 +38138,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.91015799943987</v>
+        <v>1.948446420787947</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.669969440760273</v>
@@ -38335,7 +38227,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.907478138385171</v>
+        <v>1.944026080667181</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.206045049368624</v>
@@ -38424,7 +38316,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.904598227817296</v>
+        <v>1.934498028147748</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.335814327037625</v>
@@ -38513,7 +38405,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.899607236364393</v>
+        <v>1.922433136413165</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.484314410368382</v>
@@ -38602,7 +38494,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.89399197133601</v>
+        <v>1.911373829032124</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.547345651507274</v>
@@ -38691,7 +38583,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.898145618316288</v>
+        <v>1.911551624852571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.950861674512106</v>
@@ -38780,7 +38672,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.892444993192838</v>
+        <v>1.898299666958934</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.909907912943361</v>
@@ -38869,7 +38761,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.89070045892053</v>
+        <v>1.890304615182303</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.851092232068951</v>
@@ -38958,7 +38850,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.892919118129141</v>
+        <v>1.888929933440253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.596768670445608</v>
@@ -39047,7 +38939,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.882359158985066</v>
+        <v>1.876723635394928</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.855152433951298</v>
@@ -39136,7 +39028,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.866929418398897</v>
+        <v>1.85635162147428</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.036324658372239</v>
@@ -39225,7 +39117,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.875449910478575</v>
+        <v>1.857562480341384</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.388295386653338</v>
@@ -39314,7 +39206,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.861183402142145</v>
+        <v>1.833070957943325</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.362950914562581</v>
@@ -39403,7 +39295,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.857029130700837</v>
+        <v>1.821671268116512</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.487323212445531</v>
@@ -39492,7 +39384,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.847814250556782</v>
+        <v>1.796695940048805</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.821048576044333</v>
@@ -39581,7 +39473,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.864119124789948</v>
+        <v>1.807258637618239</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.204951463510335</v>
@@ -39670,7 +39562,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.872020494250491</v>
+        <v>1.816097856157648</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.546803289901439</v>
@@ -39759,7 +39651,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.865593068651942</v>
+        <v>1.812075587775656</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.656198565180931</v>
@@ -39848,7 +39740,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.847021743248724</v>
+        <v>1.806807866523392</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.250372260153009</v>
@@ -39937,7 +39829,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.847859233183669</v>
+        <v>1.813103422823166</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.563021519496143</v>
